--- a/doc/场景分析.xlsx
+++ b/doc/场景分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14777" activeTab="1"/>
+    <workbookView windowWidth="22500" windowHeight="11115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="流程模式" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>流程模式</t>
   </si>
@@ -42,22 +42,26 @@
 NotSupportFunctionException</t>
   </si>
   <si>
-    <t>返回前端</t>
+    <t>返回前端
+失败</t>
+  </si>
+  <si>
+    <t>配置异常</t>
+  </si>
+  <si>
+    <t>EtlRouteException</t>
   </si>
   <si>
     <t>失败</t>
   </si>
   <si>
-    <t>配置异常</t>
-  </si>
-  <si>
-    <t>EtlRouteException</t>
-  </si>
-  <si>
     <t>执行异常</t>
   </si>
   <si>
     <t>ExecuteException</t>
+  </si>
+  <si>
+    <t>重试N次，失败</t>
   </si>
   <si>
     <t>执行失败</t>
@@ -77,7 +81,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +97,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -100,83 +119,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,9 +170,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +203,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -212,25 +226,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,67 +249,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,115 +417,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,11 +443,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,17 +484,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,45 +526,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -546,153 +543,156 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1024,9 +1024,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="20.8583333333333" customWidth="1"/>
+    <col min="1" max="1" width="20.858407079646" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1056,14 +1056,14 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.1" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.09734513274336" defaultRowHeight="13.85" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="50.6416666666667" customWidth="1"/>
-    <col min="3" max="3" width="17.9166666666667" customWidth="1"/>
-    <col min="4" max="4" width="23.2833333333333" customWidth="1"/>
+    <col min="2" max="2" width="50.646017699115" customWidth="1"/>
+    <col min="3" max="3" width="17.9203539823009" customWidth="1"/>
+    <col min="4" max="4" width="23.283185840708" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1087,35 +1087,53 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" ht="28.3" spans="1:2">
+    <row r="5" ht="27.75" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
